--- a/biology/Écologie/Peter_Hamilton_Raven/Peter_Hamilton_Raven.xlsx
+++ b/biology/Écologie/Peter_Hamilton_Raven/Peter_Hamilton_Raven.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Hamilton Raven (né le 13 juin 1936, à Shanghai, en Chine) est un botaniste et écologiste américain.
 Il est directeur du Jardin botanique du Missouri à Saint-Louis de 1971 à 2011.
@@ -512,11 +524,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Peter Hamilton Raven (dir.) et Tania Williams (dir.), Nature and Human Society : The Quest for a Sustainable World, Washington, D.C., National Academy Press, 2000, xii + 625 (ISBN 0-309-06555-0)
 Peter Hamilton Raven, Ray F. Evert et Suzan E. Eichhorn (trad. de l'anglais par Jules Bouharmont et Charles-Marie Evrard), Biologie végétale [« Biology of Plants, 6th edition »], Bruxelles, De Boeck Université, 2000, 1re éd., xix + 944 (ISBN 2-7445-0102-6)
-Peter Hamilton Raven, Georges Brooks Johnson, Kenneth A. Mason, Jonathan B. Losos et Susan R. Singer (trad. de l'anglais par Jules Bouharmont, Pierre L. Masson et Charles Van Hove), Biologie [« Biology, 9th edition »], Bruxelles, De Boeck Supérieur, 2011, 2e éd. (1re éd. 2007), xxvi + 1279 + [88] (ISBN 978-2-8041-6305-1)</t>
+Peter Hamilton Raven, Georges Brooks Johnson, Kenneth A. Mason, Jonathan B. Losos et Susan R. Singer (trad. de l'anglais par Jules Bouharmont, Pierre L. Masson et Charles Van Hove), Biologie [« Biology, 9th edition »], Bruxelles, De Boeck Supérieur, 2011, 2e éd. (1re éd. 2007), xxvi + 1279 +  (ISBN 978-2-8041-6305-1)</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1969 : Bourse Guggenheim
 1985 : Prix MacArthur
@@ -590,12 +606,14 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fellow de la Société américaine d'écologie
 Fellow de l'Académie australienne des sciences
 Fellow de la Linnean Society of London
-2014 : Doctorat honoris causa de l'université Harvard[1]</t>
+2014 : Doctorat honoris causa de l'université Harvard</t>
         </is>
       </c>
     </row>
